--- a/out/CE/falselink/Figori_algorithm_18.xlsx
+++ b/out/CE/falselink/Figori_algorithm_18.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.5524</v>
+        <v>0.52929999999999999</v>
       </c>
       <c r="B1">
-        <v>0.54200000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="C1">
-        <v>0.53920000000000001</v>
+        <v>0.53769999999999996</v>
       </c>
       <c r="D1">
-        <v>0.53069999999999995</v>
+        <v>0.53769999999999996</v>
       </c>
       <c r="E1">
-        <v>0.5444</v>
+        <v>0.54479999999999995</v>
       </c>
       <c r="F1">
-        <v>0.53910000000000002</v>
+        <v>0.54220000000000002</v>
       </c>
       <c r="G1">
-        <v>0.55720000000000003</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="H1">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="I1">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J1">
+        <v>0.54079999999999995</v>
+      </c>
+      <c r="K1">
+        <v>0.53049999999999997</v>
+      </c>
+      <c r="L1">
+        <v>0.56079999999999997</v>
+      </c>
+      <c r="M1">
+        <v>0.5353</v>
+      </c>
+      <c r="N1">
         <v>0.54310000000000003</v>
       </c>
-      <c r="I1">
-        <v>0.54979999999999996</v>
-      </c>
-      <c r="J1">
-        <v>0.55589999999999995</v>
-      </c>
-      <c r="K1">
-        <v>0.5403</v>
-      </c>
-      <c r="L1">
-        <v>0.56379999999999997</v>
-      </c>
-      <c r="M1">
-        <v>0.56620000000000004</v>
-      </c>
-      <c r="N1">
-        <v>0.53080000000000005</v>
-      </c>
       <c r="O1">
-        <v>0.55389999999999995</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="P1">
-        <v>0.55830000000000002</v>
+        <v>0.55369999999999997</v>
       </c>
       <c r="Q1">
-        <v>0.56440000000000001</v>
+        <v>0.5323</v>
       </c>
       <c r="R1">
-        <v>0.56259999999999999</v>
+        <v>0.55679999999999996</v>
       </c>
       <c r="S1">
-        <v>0.56610000000000005</v>
+        <v>0.57179999999999997</v>
       </c>
       <c r="T1">
-        <v>0.55559999999999998</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="U1">
-        <v>0.54179999999999995</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="V1">
-        <v>0.53320000000000001</v>
+        <v>0.53390000000000004</v>
       </c>
       <c r="W1">
-        <v>0.54249999999999998</v>
+        <v>0.55610000000000004</v>
       </c>
       <c r="X1">
-        <v>0.54469999999999996</v>
+        <v>0.55640000000000001</v>
       </c>
       <c r="Y1">
-        <v>0.53269999999999995</v>
+        <v>0.53539999999999999</v>
       </c>
       <c r="Z1">
-        <v>0.55989999999999995</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="AA1">
-        <v>0.54869999999999997</v>
+        <v>0.5423</v>
       </c>
       <c r="AB1">
-        <v>0.54769999999999996</v>
+        <v>0.54420000000000002</v>
       </c>
       <c r="AC1">
-        <v>0.54090000000000005</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="AD1">
-        <v>0.52649999999999997</v>
+        <v>0.5655</v>
       </c>
       <c r="AE1">
-        <v>0.52839999999999998</v>
+        <v>0.55310000000000004</v>
       </c>
       <c r="AF1">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="AG1">
+        <v>0.57289999999999996</v>
+      </c>
+      <c r="AH1">
+        <v>0.56230000000000002</v>
+      </c>
+      <c r="AI1">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="AJ1">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="AK1">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="AL1">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="AM1">
+        <v>0.55920000000000003</v>
+      </c>
+      <c r="AN1">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="AO1">
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="AP1">
+        <v>0.55930000000000002</v>
+      </c>
+      <c r="AQ1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AR1">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="AS1">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="AT1">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="AU1">
+        <v>0.57609999999999995</v>
+      </c>
+      <c r="AV1">
+        <v>0.5373</v>
+      </c>
+      <c r="AW1">
         <v>0.54610000000000003</v>
       </c>
-      <c r="AG1">
-        <v>0.56530000000000002</v>
-      </c>
-      <c r="AH1">
-        <v>0.56679999999999997</v>
-      </c>
-      <c r="AI1">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="AJ1">
-        <v>0.52929999999999999</v>
-      </c>
-      <c r="AK1">
-        <v>0.54949999999999999</v>
-      </c>
-      <c r="AL1">
-        <v>0.55810000000000004</v>
-      </c>
-      <c r="AM1">
-        <v>0.56130000000000002</v>
-      </c>
-      <c r="AN1">
-        <v>0.52569999999999995</v>
-      </c>
-      <c r="AO1">
-        <v>0.54769999999999996</v>
-      </c>
-      <c r="AP1">
-        <v>0.54379999999999995</v>
-      </c>
-      <c r="AQ1">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="AR1">
-        <v>0.53029999999999999</v>
-      </c>
-      <c r="AS1">
-        <v>0.56979999999999997</v>
-      </c>
-      <c r="AT1">
-        <v>0.52839999999999998</v>
-      </c>
-      <c r="AU1">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="AV1">
-        <v>0.54449999999999998</v>
-      </c>
-      <c r="AW1">
-        <v>0.54969999999999997</v>
-      </c>
       <c r="AX1">
-        <v>0.5544</v>
+        <v>0.5302</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.52600000000000002</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="B2">
-        <v>0.53939999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="C2">
-        <v>0.51200000000000001</v>
+        <v>0.52659999999999996</v>
       </c>
       <c r="D2">
-        <v>0.50480000000000003</v>
+        <v>0.51639999999999997</v>
       </c>
       <c r="E2">
-        <v>0.53380000000000005</v>
+        <v>0.54249999999999998</v>
       </c>
       <c r="F2">
-        <v>0.49930000000000002</v>
+        <v>0.51319999999999999</v>
       </c>
       <c r="G2">
-        <v>0.53310000000000002</v>
+        <v>0.55769999999999997</v>
       </c>
       <c r="H2">
-        <v>0.52159999999999995</v>
+        <v>0.47389999999999999</v>
       </c>
       <c r="I2">
-        <v>0.53049999999999997</v>
+        <v>0.55359999999999998</v>
       </c>
       <c r="J2">
-        <v>0.52969999999999995</v>
+        <v>0.50319999999999998</v>
       </c>
       <c r="K2">
+        <v>0.52810000000000001</v>
+      </c>
+      <c r="L2">
         <v>0.53849999999999998</v>
       </c>
-      <c r="L2">
-        <v>0.54500000000000004</v>
-      </c>
       <c r="M2">
-        <v>0.56640000000000001</v>
+        <v>0.53510000000000002</v>
       </c>
       <c r="N2">
-        <v>0.48349999999999999</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="O2">
-        <v>0.55010000000000003</v>
+        <v>0.51919999999999999</v>
       </c>
       <c r="P2">
-        <v>0.54700000000000004</v>
+        <v>0.56279999999999997</v>
       </c>
       <c r="Q2">
-        <v>0.55649999999999999</v>
+        <v>0.52029999999999998</v>
       </c>
       <c r="R2">
-        <v>0.53490000000000004</v>
+        <v>0.52180000000000004</v>
       </c>
       <c r="S2">
-        <v>0.56130000000000002</v>
+        <v>0.56850000000000001</v>
       </c>
       <c r="T2">
-        <v>0.53369999999999995</v>
+        <v>0.48620000000000002</v>
       </c>
       <c r="U2">
-        <v>0.54490000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="V2">
-        <v>0.54059999999999997</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="W2">
-        <v>0.53849999999999998</v>
+        <v>0.52690000000000003</v>
       </c>
       <c r="X2">
-        <v>0.52639999999999998</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="Y2">
-        <v>0.53469999999999995</v>
+        <v>0.50649999999999995</v>
       </c>
       <c r="Z2">
-        <v>0.55700000000000005</v>
+        <v>0.51470000000000005</v>
       </c>
       <c r="AA2">
-        <v>0.5262</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="AB2">
-        <v>0.50309999999999999</v>
+        <v>0.5222</v>
       </c>
       <c r="AC2">
-        <v>0.52380000000000004</v>
+        <v>0.54579999999999995</v>
       </c>
       <c r="AD2">
-        <v>0.52700000000000002</v>
+        <v>0.55879999999999996</v>
       </c>
       <c r="AE2">
-        <v>0.51480000000000004</v>
+        <v>0.53039999999999998</v>
       </c>
       <c r="AF2">
-        <v>0.51170000000000004</v>
+        <v>0.53710000000000002</v>
       </c>
       <c r="AG2">
-        <v>0.54779999999999995</v>
+        <v>0.57630000000000003</v>
       </c>
       <c r="AH2">
-        <v>0.55649999999999999</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="AI2">
-        <v>0.51359999999999995</v>
+        <v>0.55049999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.50270000000000004</v>
+        <v>0.53480000000000005</v>
       </c>
       <c r="AK2">
+        <v>0.52869999999999995</v>
+      </c>
+      <c r="AL2">
+        <v>0.56169999999999998</v>
+      </c>
+      <c r="AM2">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="AN2">
         <v>0.52470000000000006</v>
       </c>
-      <c r="AL2">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="AM2">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="AN2">
-        <v>0.50590000000000002</v>
-      </c>
       <c r="AO2">
-        <v>0.5423</v>
+        <v>0.5323</v>
       </c>
       <c r="AP2">
-        <v>0.53659999999999997</v>
+        <v>0.5222</v>
       </c>
       <c r="AQ2">
-        <v>0.51590000000000003</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="AR2">
-        <v>0.52059999999999995</v>
+        <v>0.54449999999999998</v>
       </c>
       <c r="AS2">
-        <v>0.58579999999999999</v>
+        <v>0.52569999999999995</v>
       </c>
       <c r="AT2">
-        <v>0.49790000000000001</v>
+        <v>0.52929999999999999</v>
       </c>
       <c r="AU2">
-        <v>0.53490000000000004</v>
+        <v>0.54759999999999998</v>
       </c>
       <c r="AV2">
-        <v>0.52539999999999998</v>
+        <v>0.53539999999999999</v>
       </c>
       <c r="AW2">
-        <v>0.53939999999999999</v>
+        <v>0.51280000000000003</v>
       </c>
       <c r="AX2">
-        <v>0.53920000000000001</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.50360000000000005</v>
+        <v>0.49640000000000001</v>
       </c>
       <c r="B3">
-        <v>0.5474</v>
+        <v>0.48770000000000002</v>
       </c>
       <c r="C3">
-        <v>0.50060000000000004</v>
+        <v>0.52059999999999995</v>
       </c>
       <c r="D3">
-        <v>0.49180000000000001</v>
+        <v>0.50929999999999997</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>0.52439999999999998</v>
       </c>
       <c r="F3">
-        <v>0.4647</v>
+        <v>0.4834</v>
       </c>
       <c r="G3">
-        <v>0.51939999999999997</v>
+        <v>0.53259999999999996</v>
       </c>
       <c r="H3">
-        <v>0.49590000000000001</v>
+        <v>0.45889999999999997</v>
       </c>
       <c r="I3">
-        <v>0.53439999999999999</v>
+        <v>0.53410000000000002</v>
       </c>
       <c r="J3">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="K3">
         <v>0.50570000000000004</v>
       </c>
-      <c r="K3">
-        <v>0.51539999999999997</v>
-      </c>
       <c r="L3">
-        <v>0.54200000000000004</v>
+        <v>0.52239999999999998</v>
       </c>
       <c r="M3">
-        <v>0.53520000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="N3">
-        <v>0.48599999999999999</v>
+        <v>0.51060000000000005</v>
       </c>
       <c r="O3">
-        <v>0.54310000000000003</v>
+        <v>0.49490000000000001</v>
       </c>
       <c r="P3">
-        <v>0.52990000000000004</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.53779999999999994</v>
+        <v>0.51139999999999997</v>
       </c>
       <c r="R3">
-        <v>0.5101</v>
+        <v>0.52839999999999998</v>
       </c>
       <c r="S3">
-        <v>0.54620000000000002</v>
+        <v>0.56610000000000005</v>
       </c>
       <c r="T3">
-        <v>0.50349999999999995</v>
+        <v>0.47439999999999999</v>
       </c>
       <c r="U3">
+        <v>0.54790000000000005</v>
+      </c>
+      <c r="V3">
+        <v>0.49490000000000001</v>
+      </c>
+      <c r="W3">
+        <v>0.5141</v>
+      </c>
+      <c r="X3">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="Y3">
+        <v>0.46989999999999998</v>
+      </c>
+      <c r="Z3">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="AB3">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="AD3">
+        <v>0.54979999999999996</v>
+      </c>
+      <c r="AE3">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="AF3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="AG3">
+        <v>0.54379999999999995</v>
+      </c>
+      <c r="AH3">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="AI3">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="AJ3">
         <v>0.53029999999999999</v>
       </c>
-      <c r="V3">
-        <v>0.54</v>
-      </c>
-      <c r="W3">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="X3">
-        <v>0.51229999999999998</v>
-      </c>
-      <c r="Y3">
-        <v>0.5101</v>
-      </c>
-      <c r="Z3">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="AA3">
-        <v>0.50370000000000004</v>
-      </c>
-      <c r="AB3">
-        <v>0.48060000000000003</v>
-      </c>
-      <c r="AC3">
-        <v>0.47770000000000001</v>
-      </c>
-      <c r="AD3">
-        <v>0.4768</v>
-      </c>
-      <c r="AE3">
-        <v>0.4793</v>
-      </c>
-      <c r="AF3">
-        <v>0.50270000000000004</v>
-      </c>
-      <c r="AG3">
-        <v>0.52990000000000004</v>
-      </c>
-      <c r="AH3">
-        <v>0.53439999999999999</v>
-      </c>
-      <c r="AI3">
-        <v>0.51839999999999997</v>
-      </c>
-      <c r="AJ3">
-        <v>0.4955</v>
-      </c>
       <c r="AK3">
-        <v>0.499</v>
+        <v>0.54930000000000001</v>
       </c>
       <c r="AL3">
-        <v>0.53159999999999996</v>
+        <v>0.55449999999999999</v>
       </c>
       <c r="AM3">
-        <v>0.50870000000000004</v>
+        <v>0.4914</v>
       </c>
       <c r="AN3">
-        <v>0.49070000000000003</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="AO3">
-        <v>0.52029999999999998</v>
+        <v>0.50480000000000003</v>
       </c>
       <c r="AP3">
-        <v>0.54420000000000002</v>
+        <v>0.54059999999999997</v>
       </c>
       <c r="AQ3">
-        <v>0.48649999999999999</v>
+        <v>0.48980000000000001</v>
       </c>
       <c r="AR3">
-        <v>0.48880000000000001</v>
+        <v>0.54120000000000001</v>
       </c>
       <c r="AS3">
-        <v>0.5917</v>
+        <v>0.49009999999999998</v>
       </c>
       <c r="AT3">
-        <v>0.46870000000000001</v>
+        <v>0.50070000000000003</v>
       </c>
       <c r="AU3">
-        <v>0.49490000000000001</v>
+        <v>0.54069999999999996</v>
       </c>
       <c r="AV3">
-        <v>0.50309999999999999</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="AW3">
-        <v>0.51339999999999997</v>
+        <v>0.47889999999999999</v>
       </c>
       <c r="AX3">
-        <v>0.52370000000000005</v>
+        <v>0.49349999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.47299999999999998</v>
+        <v>0.52090000000000003</v>
       </c>
       <c r="B4">
-        <v>0.5383</v>
+        <v>0.51559999999999995</v>
       </c>
       <c r="C4">
-        <v>0.51349999999999996</v>
+        <v>0.48449999999999999</v>
       </c>
       <c r="D4">
-        <v>0.49130000000000001</v>
+        <v>0.50260000000000005</v>
       </c>
       <c r="E4">
-        <v>0.4819</v>
+        <v>0.53869999999999996</v>
       </c>
       <c r="F4">
-        <v>0.4733</v>
+        <v>0.46989999999999998</v>
       </c>
       <c r="G4">
-        <v>0.53410000000000002</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="H4">
-        <v>0.48849999999999999</v>
+        <v>0.48139999999999999</v>
       </c>
       <c r="I4">
-        <v>0.55720000000000003</v>
+        <v>0.52569999999999995</v>
       </c>
       <c r="J4">
-        <v>0.49780000000000002</v>
+        <v>0.50880000000000003</v>
       </c>
       <c r="K4">
-        <v>0.48959999999999998</v>
+        <v>0.53959999999999997</v>
       </c>
       <c r="L4">
-        <v>0.52669999999999995</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="M4">
-        <v>0.52129999999999999</v>
+        <v>0.502</v>
       </c>
       <c r="N4">
-        <v>0.47799999999999998</v>
+        <v>0.47739999999999999</v>
       </c>
       <c r="O4">
-        <v>0.52510000000000001</v>
+        <v>0.4914</v>
       </c>
       <c r="P4">
-        <v>0.503</v>
+        <v>0.52139999999999997</v>
       </c>
       <c r="Q4">
-        <v>0.52669999999999995</v>
+        <v>0.52439999999999998</v>
       </c>
       <c r="R4">
-        <v>0.49930000000000002</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="S4">
-        <v>0.53800000000000003</v>
+        <v>0.53510000000000002</v>
       </c>
       <c r="T4">
-        <v>0.4955</v>
+        <v>0.43609999999999999</v>
       </c>
       <c r="U4">
-        <v>0.52980000000000005</v>
+        <v>0.55589999999999995</v>
       </c>
       <c r="V4">
-        <v>0.49519999999999997</v>
+        <v>0.4864</v>
       </c>
       <c r="W4">
-        <v>0.51539999999999997</v>
+        <v>0.49370000000000003</v>
       </c>
       <c r="X4">
-        <v>0.496</v>
+        <v>0.51849999999999996</v>
       </c>
       <c r="Y4">
-        <v>0.53359999999999996</v>
+        <v>0.47610000000000002</v>
       </c>
       <c r="Z4">
-        <v>0.52549999999999997</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="AA4">
-        <v>0.49220000000000003</v>
+        <v>0.50280000000000002</v>
       </c>
       <c r="AB4">
-        <v>0.48649999999999999</v>
+        <v>0.51619999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.48780000000000001</v>
+        <v>0.50239999999999996</v>
       </c>
       <c r="AD4">
-        <v>0.4667</v>
+        <v>0.52690000000000003</v>
       </c>
       <c r="AE4">
-        <v>0.46639999999999998</v>
+        <v>0.50819999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.48570000000000002</v>
+        <v>0.50639999999999996</v>
       </c>
       <c r="AG4">
-        <v>0.51980000000000004</v>
+        <v>0.5413</v>
       </c>
       <c r="AH4">
-        <v>0.50280000000000002</v>
+        <v>0.50370000000000004</v>
       </c>
       <c r="AI4">
-        <v>0.47439999999999999</v>
+        <v>0.5645</v>
       </c>
       <c r="AJ4">
-        <v>0.50839999999999996</v>
+        <v>0.53590000000000004</v>
       </c>
       <c r="AK4">
-        <v>0.45429999999999998</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="AL4">
-        <v>0.5181</v>
+        <v>0.49819999999999998</v>
       </c>
       <c r="AM4">
-        <v>0.53090000000000004</v>
+        <v>0.50570000000000004</v>
       </c>
       <c r="AN4">
-        <v>0.49149999999999999</v>
+        <v>0.49390000000000001</v>
       </c>
       <c r="AO4">
-        <v>0.51400000000000001</v>
+        <v>0.4637</v>
       </c>
       <c r="AP4">
-        <v>0.51119999999999999</v>
+        <v>0.51390000000000002</v>
       </c>
       <c r="AQ4">
-        <v>0.47849999999999998</v>
+        <v>0.4869</v>
       </c>
       <c r="AR4">
-        <v>0.50380000000000003</v>
+        <v>0.5474</v>
       </c>
       <c r="AS4">
-        <v>0.58360000000000001</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="AT4">
-        <v>0.45250000000000001</v>
+        <v>0.51029999999999998</v>
       </c>
       <c r="AU4">
-        <v>0.50770000000000004</v>
+        <v>0.53349999999999997</v>
       </c>
       <c r="AV4">
-        <v>0.50049999999999994</v>
+        <v>0.48530000000000001</v>
       </c>
       <c r="AW4">
-        <v>0.50600000000000001</v>
+        <v>0.47720000000000001</v>
       </c>
       <c r="AX4">
-        <v>0.53949999999999998</v>
+        <v>0.4884</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.46929999999999999</v>
+        <v>0.54769999999999996</v>
       </c>
       <c r="B5">
-        <v>0.54610000000000003</v>
+        <v>0.50639999999999996</v>
       </c>
       <c r="C5">
-        <v>0.501</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="D5">
-        <v>0.49809999999999999</v>
+        <v>0.49680000000000002</v>
       </c>
       <c r="E5">
-        <v>0.4859</v>
+        <v>0.52329999999999999</v>
       </c>
       <c r="F5">
-        <v>0.48649999999999999</v>
+        <v>0.4768</v>
       </c>
       <c r="G5">
-        <v>0.53990000000000005</v>
+        <v>0.53090000000000004</v>
       </c>
       <c r="H5">
-        <v>0.49249999999999999</v>
+        <v>0.4723</v>
       </c>
       <c r="I5">
-        <v>0.5363</v>
+        <v>0.53359999999999996</v>
       </c>
       <c r="J5">
-        <v>0.51349999999999996</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="K5">
-        <v>0.49669999999999997</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="L5">
-        <v>0.50539999999999996</v>
+        <v>0.51180000000000003</v>
       </c>
       <c r="M5">
-        <v>0.50660000000000005</v>
+        <v>0.49769999999999998</v>
       </c>
       <c r="N5">
-        <v>0.45269999999999999</v>
+        <v>0.48920000000000002</v>
       </c>
       <c r="O5">
-        <v>0.52539999999999998</v>
+        <v>0.4819</v>
       </c>
       <c r="P5">
-        <v>0.49919999999999998</v>
+        <v>0.50239999999999996</v>
       </c>
       <c r="Q5">
-        <v>0.51839999999999997</v>
+        <v>0.50580000000000003</v>
       </c>
       <c r="R5">
-        <v>0.50119999999999998</v>
+        <v>0.51919999999999999</v>
       </c>
       <c r="S5">
-        <v>0.51519999999999999</v>
+        <v>0.52210000000000001</v>
       </c>
       <c r="T5">
-        <v>0.5111</v>
+        <v>0.45590000000000003</v>
       </c>
       <c r="U5">
-        <v>0.52729999999999999</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="V5">
-        <v>0.46739999999999998</v>
+        <v>0.4582</v>
       </c>
       <c r="W5">
-        <v>0.47639999999999999</v>
+        <v>0.49049999999999999</v>
       </c>
       <c r="X5">
-        <v>0.48449999999999999</v>
+        <v>0.54379999999999995</v>
       </c>
       <c r="Y5">
-        <v>0.50760000000000005</v>
+        <v>0.4612</v>
       </c>
       <c r="Z5">
-        <v>0.48110000000000003</v>
+        <v>0.49869999999999998</v>
       </c>
       <c r="AA5">
-        <v>0.4758</v>
+        <v>0.49480000000000002</v>
       </c>
       <c r="AB5">
-        <v>0.44750000000000001</v>
+        <v>0.48570000000000002</v>
       </c>
       <c r="AC5">
-        <v>0.47789999999999999</v>
+        <v>0.49840000000000001</v>
       </c>
       <c r="AD5">
-        <v>0.4617</v>
+        <v>0.53810000000000002</v>
       </c>
       <c r="AE5">
-        <v>0.46760000000000002</v>
+        <v>0.51729999999999998</v>
       </c>
       <c r="AF5">
-        <v>0.47449999999999998</v>
+        <v>0.49480000000000002</v>
       </c>
       <c r="AG5">
-        <v>0.53739999999999999</v>
+        <v>0.53039999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.4919</v>
+        <v>0.51190000000000002</v>
       </c>
       <c r="AI5">
-        <v>0.47370000000000001</v>
+        <v>0.5262</v>
       </c>
       <c r="AJ5">
-        <v>0.47849999999999998</v>
+        <v>0.51939999999999997</v>
       </c>
       <c r="AK5">
-        <v>0.47539999999999999</v>
+        <v>0.50670000000000004</v>
       </c>
       <c r="AL5">
-        <v>0.52590000000000003</v>
+        <v>0.52010000000000001</v>
       </c>
       <c r="AM5">
-        <v>0.54500000000000004</v>
+        <v>0.51670000000000005</v>
       </c>
       <c r="AN5">
-        <v>0.48420000000000002</v>
+        <v>0.50970000000000004</v>
       </c>
       <c r="AO5">
-        <v>0.51180000000000003</v>
+        <v>0.44969999999999999</v>
       </c>
       <c r="AP5">
-        <v>0.50370000000000004</v>
+        <v>0.4995</v>
       </c>
       <c r="AQ5">
-        <v>0.46610000000000001</v>
+        <v>0.50080000000000002</v>
       </c>
       <c r="AR5">
-        <v>0.52590000000000003</v>
+        <v>0.52010000000000001</v>
       </c>
       <c r="AS5">
-        <v>0.56789999999999996</v>
+        <v>0.51329999999999998</v>
       </c>
       <c r="AT5">
-        <v>0.44629999999999997</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="AU5">
-        <v>0.53120000000000001</v>
+        <v>0.5121</v>
       </c>
       <c r="AV5">
-        <v>0.48409999999999997</v>
+        <v>0.47010000000000002</v>
       </c>
       <c r="AW5">
-        <v>0.51060000000000005</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="AX5">
-        <v>0.5302</v>
+        <v>0.46989999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.48520000000000002</v>
+        <v>0.53269999999999995</v>
       </c>
       <c r="B6">
-        <v>0.54290000000000005</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="C6">
-        <v>0.51619999999999999</v>
+        <v>0.45540000000000003</v>
       </c>
       <c r="D6">
-        <v>0.4763</v>
+        <v>0.49819999999999998</v>
       </c>
       <c r="E6">
-        <v>0.48609999999999998</v>
+        <v>0.51439999999999997</v>
       </c>
       <c r="F6">
-        <v>0.49130000000000001</v>
+        <v>0.46989999999999998</v>
       </c>
       <c r="G6">
-        <v>0.54849999999999999</v>
+        <v>0.52390000000000003</v>
       </c>
       <c r="H6">
-        <v>0.50870000000000004</v>
+        <v>0.47260000000000002</v>
       </c>
       <c r="I6">
         <v>0.52639999999999998</v>
       </c>
       <c r="J6">
-        <v>0.52690000000000003</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="K6">
-        <v>0.50370000000000004</v>
+        <v>0.50739999999999996</v>
       </c>
       <c r="L6">
-        <v>0.51970000000000005</v>
+        <v>0.51790000000000003</v>
       </c>
       <c r="M6">
-        <v>0.50719999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="N6">
-        <v>0.44440000000000002</v>
+        <v>0.50949999999999995</v>
       </c>
       <c r="O6">
-        <v>0.4869</v>
+        <v>0.50009999999999999</v>
       </c>
       <c r="P6">
-        <v>0.50349999999999995</v>
+        <v>0.48459999999999998</v>
       </c>
       <c r="Q6">
-        <v>0.49809999999999999</v>
+        <v>0.50919999999999999</v>
       </c>
       <c r="R6">
-        <v>0.47889999999999999</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="S6">
-        <v>0.50719999999999998</v>
+        <v>0.49869999999999998</v>
       </c>
       <c r="T6">
-        <v>0.4864</v>
+        <v>0.46310000000000001</v>
       </c>
       <c r="U6">
-        <v>0.50749999999999995</v>
+        <v>0.53339999999999999</v>
       </c>
       <c r="V6">
-        <v>0.46970000000000001</v>
+        <v>0.47670000000000001</v>
       </c>
       <c r="W6">
-        <v>0.48299999999999998</v>
+        <v>0.47839999999999999</v>
       </c>
       <c r="X6">
-        <v>0.48899999999999999</v>
+        <v>0.54010000000000002</v>
       </c>
       <c r="Y6">
-        <v>0.51870000000000005</v>
+        <v>0.47070000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.47810000000000002</v>
+        <v>0.48609999999999998</v>
       </c>
       <c r="AA6">
-        <v>0.47749999999999998</v>
+        <v>0.49030000000000001</v>
       </c>
       <c r="AB6">
-        <v>0.43769999999999998</v>
+        <v>0.46239999999999998</v>
       </c>
       <c r="AC6">
-        <v>0.4753</v>
+        <v>0.48559999999999998</v>
       </c>
       <c r="AD6">
-        <v>0.47810000000000002</v>
+        <v>0.54139999999999999</v>
       </c>
       <c r="AE6">
-        <v>0.4597</v>
+        <v>0.49370000000000003</v>
       </c>
       <c r="AF6">
-        <v>0.47610000000000002</v>
+        <v>0.49020000000000002</v>
       </c>
       <c r="AG6">
-        <v>0.5333</v>
+        <v>0.504</v>
       </c>
       <c r="AH6">
-        <v>0.50719999999999998</v>
+        <v>0.50490000000000002</v>
       </c>
       <c r="AI6">
-        <v>0.44019999999999998</v>
+        <v>0.50880000000000003</v>
       </c>
       <c r="AJ6">
-        <v>0.4768</v>
+        <v>0.53239999999999998</v>
       </c>
       <c r="AK6">
-        <v>0.4647</v>
+        <v>0.49469999999999997</v>
       </c>
       <c r="AL6">
-        <v>0.5333</v>
+        <v>0.51729999999999998</v>
       </c>
       <c r="AM6">
-        <v>0.55030000000000001</v>
+        <v>0.52929999999999999</v>
       </c>
       <c r="AN6">
-        <v>0.47889999999999999</v>
+        <v>0.4773</v>
       </c>
       <c r="AO6">
-        <v>0.50880000000000003</v>
+        <v>0.4531</v>
       </c>
       <c r="AP6">
-        <v>0.48770000000000002</v>
+        <v>0.48370000000000002</v>
       </c>
       <c r="AQ6">
-        <v>0.46639999999999998</v>
+        <v>0.50380000000000003</v>
       </c>
       <c r="AR6">
-        <v>0.52910000000000001</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="AS6">
-        <v>0.53049999999999997</v>
+        <v>0.49709999999999999</v>
       </c>
       <c r="AT6">
-        <v>0.44290000000000002</v>
+        <v>0.4738</v>
       </c>
       <c r="AU6">
-        <v>0.50860000000000005</v>
+        <v>0.4894</v>
       </c>
       <c r="AV6">
-        <v>0.48630000000000001</v>
+        <v>0.45369999999999999</v>
       </c>
       <c r="AW6">
-        <v>0.5222</v>
+        <v>0.49680000000000002</v>
       </c>
       <c r="AX6">
-        <v>0.51529999999999998</v>
+        <v>0.46179999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.49130000000000001</v>
+        <v>0.52969999999999995</v>
       </c>
       <c r="B7">
-        <v>0.55379999999999996</v>
+        <v>0.47849999999999998</v>
       </c>
       <c r="C7">
-        <v>0.49459999999999998</v>
+        <v>0.45319999999999999</v>
       </c>
       <c r="D7">
-        <v>0.46200000000000002</v>
+        <v>0.48920000000000002</v>
       </c>
       <c r="E7">
-        <v>0.46750000000000003</v>
+        <v>0.51619999999999999</v>
       </c>
       <c r="F7">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.51119999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="J7">
+        <v>0.50080000000000002</v>
+      </c>
+      <c r="K7">
+        <v>0.50219999999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.5181</v>
+      </c>
+      <c r="M7">
+        <v>0.46539999999999998</v>
+      </c>
+      <c r="N7">
+        <v>0.50580000000000003</v>
+      </c>
+      <c r="O7">
+        <v>0.46860000000000002</v>
+      </c>
+      <c r="P7">
+        <v>0.50860000000000005</v>
+      </c>
+      <c r="Q7">
+        <v>0.50860000000000005</v>
+      </c>
+      <c r="R7">
+        <v>0.5171</v>
+      </c>
+      <c r="S7">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.501</v>
+      </c>
+      <c r="U7">
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="V7">
+        <v>0.4521</v>
+      </c>
+      <c r="W7">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="X7">
+        <v>0.5353</v>
+      </c>
+      <c r="Y7">
+        <v>0.48139999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="AA7">
         <v>0.49220000000000003</v>
       </c>
-      <c r="G7">
-        <v>0.52359999999999995</v>
-      </c>
-      <c r="H7">
-        <v>0.52039999999999997</v>
-      </c>
-      <c r="I7">
-        <v>0.51419999999999999</v>
-      </c>
-      <c r="J7">
-        <v>0.4975</v>
-      </c>
-      <c r="K7">
-        <v>0.50290000000000001</v>
-      </c>
-      <c r="L7">
-        <v>0.49730000000000002</v>
-      </c>
-      <c r="M7">
-        <v>0.50780000000000003</v>
-      </c>
-      <c r="N7">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="O7">
-        <v>0.49509999999999998</v>
-      </c>
-      <c r="P7">
-        <v>0.49120000000000003</v>
-      </c>
-      <c r="Q7">
+      <c r="AB7">
+        <v>0.46379999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.502</v>
+      </c>
+      <c r="AD7">
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="AE7">
+        <v>0.5111</v>
+      </c>
+      <c r="AF7">
+        <v>0.496</v>
+      </c>
+      <c r="AG7">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="AH7">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="AI7">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="AJ7">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="AK7">
+        <v>0.4995</v>
+      </c>
+      <c r="AL7">
+        <v>0.52229999999999999</v>
+      </c>
+      <c r="AM7">
         <v>0.51270000000000004</v>
       </c>
-      <c r="R7">
-        <v>0.4879</v>
-      </c>
-      <c r="S7">
-        <v>0.52680000000000005</v>
-      </c>
-      <c r="T7">
-        <v>0.49249999999999999</v>
-      </c>
-      <c r="U7">
-        <v>0.52339999999999998</v>
-      </c>
-      <c r="V7">
-        <v>0.48849999999999999</v>
-      </c>
-      <c r="W7">
-        <v>0.47539999999999999</v>
-      </c>
-      <c r="X7">
-        <v>0.51139999999999997</v>
-      </c>
-      <c r="Y7">
-        <v>0.4793</v>
-      </c>
-      <c r="Z7">
-        <v>0.47849999999999998</v>
-      </c>
-      <c r="AA7">
-        <v>0.46679999999999999</v>
-      </c>
-      <c r="AB7">
-        <v>0.4582</v>
-      </c>
-      <c r="AC7">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="AD7">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="AE7">
-        <v>0.46189999999999998</v>
-      </c>
-      <c r="AF7">
-        <v>0.45750000000000002</v>
-      </c>
-      <c r="AG7">
-        <v>0.51280000000000003</v>
-      </c>
-      <c r="AH7">
-        <v>0.47689999999999999</v>
-      </c>
-      <c r="AI7">
-        <v>0.4531</v>
-      </c>
-      <c r="AJ7">
-        <v>0.46850000000000003</v>
-      </c>
-      <c r="AK7">
-        <v>0.47220000000000001</v>
-      </c>
-      <c r="AL7">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="AM7">
-        <v>0.53369999999999995</v>
-      </c>
       <c r="AN7">
-        <v>0.4602</v>
+        <v>0.46489999999999998</v>
       </c>
       <c r="AO7">
-        <v>0.51029999999999998</v>
+        <v>0.45639999999999997</v>
       </c>
       <c r="AP7">
-        <v>0.50080000000000002</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="AQ7">
-        <v>0.46989999999999998</v>
+        <v>0.53069999999999995</v>
       </c>
       <c r="AR7">
-        <v>0.51370000000000005</v>
+        <v>0.46610000000000001</v>
       </c>
       <c r="AS7">
-        <v>0.53320000000000001</v>
+        <v>0.49890000000000001</v>
       </c>
       <c r="AT7">
-        <v>0.4259</v>
+        <v>0.4803</v>
       </c>
       <c r="AU7">
-        <v>0.49559999999999998</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="AV7">
-        <v>0.48049999999999998</v>
+        <v>0.42530000000000001</v>
       </c>
       <c r="AW7">
-        <v>0.53490000000000004</v>
+        <v>0.47920000000000001</v>
       </c>
       <c r="AX7">
-        <v>0.51249999999999996</v>
+        <v>0.47749999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.4662</v>
+        <v>0.52029999999999998</v>
       </c>
       <c r="B8">
-        <v>0.5635</v>
+        <v>0.48509999999999998</v>
       </c>
       <c r="C8">
-        <v>0.50170000000000003</v>
+        <v>0.42830000000000001</v>
       </c>
       <c r="D8">
-        <v>0.46150000000000002</v>
+        <v>0.5081</v>
       </c>
       <c r="E8">
-        <v>0.4824</v>
+        <v>0.53259999999999996</v>
       </c>
       <c r="F8">
-        <v>0.48820000000000002</v>
+        <v>0.45350000000000001</v>
       </c>
       <c r="G8">
-        <v>0.50949999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="H8">
-        <v>0.51439999999999997</v>
+        <v>0.49469999999999997</v>
       </c>
       <c r="I8">
-        <v>0.52529999999999999</v>
+        <v>0.50580000000000003</v>
       </c>
       <c r="J8">
-        <v>0.47870000000000001</v>
+        <v>0.48609999999999998</v>
       </c>
       <c r="K8">
-        <v>0.51349999999999996</v>
+        <v>0.49519999999999997</v>
       </c>
       <c r="L8">
-        <v>0.5222</v>
+        <v>0.53990000000000005</v>
       </c>
       <c r="M8">
-        <v>0.49980000000000002</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="N8">
-        <v>0.4919</v>
+        <v>0.52149999999999996</v>
       </c>
       <c r="O8">
-        <v>0.4667</v>
+        <v>0.44130000000000003</v>
       </c>
       <c r="P8">
-        <v>0.49309999999999998</v>
+        <v>0.51529999999999998</v>
       </c>
       <c r="Q8">
-        <v>0.50560000000000005</v>
+        <v>0.49390000000000001</v>
       </c>
       <c r="R8">
-        <v>0.51819999999999999</v>
+        <v>0.51829999999999998</v>
       </c>
       <c r="S8">
-        <v>0.53159999999999996</v>
+        <v>0.47989999999999999</v>
       </c>
       <c r="T8">
-        <v>0.48049999999999998</v>
+        <v>0.49580000000000002</v>
       </c>
       <c r="U8">
-        <v>0.51890000000000003</v>
+        <v>0.5595</v>
       </c>
       <c r="V8">
-        <v>0.4783</v>
+        <v>0.4652</v>
       </c>
       <c r="W8">
-        <v>0.46589999999999998</v>
+        <v>0.51580000000000004</v>
       </c>
       <c r="X8">
-        <v>0.50970000000000004</v>
+        <v>0.51749999999999996</v>
       </c>
       <c r="Y8">
-        <v>0.47520000000000001</v>
+        <v>0.47589999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.45760000000000001</v>
+        <v>0.48080000000000001</v>
       </c>
       <c r="AA8">
-        <v>0.46989999999999998</v>
+        <v>0.50670000000000004</v>
       </c>
       <c r="AB8">
-        <v>0.45350000000000001</v>
+        <v>0.46089999999999998</v>
       </c>
       <c r="AC8">
-        <v>0.4995</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="AD8">
-        <v>0.48209999999999997</v>
+        <v>0.49990000000000001</v>
       </c>
       <c r="AE8">
-        <v>0.42980000000000002</v>
+        <v>0.50080000000000002</v>
       </c>
       <c r="AF8">
-        <v>0.44679999999999997</v>
+        <v>0.47570000000000001</v>
       </c>
       <c r="AG8">
-        <v>0.51970000000000005</v>
+        <v>0.52039999999999997</v>
       </c>
       <c r="AH8">
-        <v>0.47299999999999998</v>
+        <v>0.50470000000000004</v>
       </c>
       <c r="AI8">
-        <v>0.4451</v>
+        <v>0.49030000000000001</v>
       </c>
       <c r="AJ8">
-        <v>0.45800000000000002</v>
+        <v>0.54869999999999997</v>
       </c>
       <c r="AK8">
-        <v>0.45019999999999999</v>
+        <v>0.49940000000000001</v>
       </c>
       <c r="AL8">
-        <v>0.50819999999999999</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="AM8">
-        <v>0.51939999999999997</v>
+        <v>0.50119999999999998</v>
       </c>
       <c r="AN8">
-        <v>0.45619999999999999</v>
+        <v>0.45579999999999998</v>
       </c>
       <c r="AO8">
-        <v>0.49959999999999999</v>
+        <v>0.48110000000000003</v>
       </c>
       <c r="AP8">
-        <v>0.50270000000000004</v>
+        <v>0.49919999999999998</v>
       </c>
       <c r="AQ8">
-        <v>0.47449999999999998</v>
+        <v>0.55210000000000004</v>
       </c>
       <c r="AR8">
-        <v>0.51949999999999996</v>
+        <v>0.45810000000000001</v>
       </c>
       <c r="AS8">
-        <v>0.52500000000000002</v>
+        <v>0.49220000000000003</v>
       </c>
       <c r="AT8">
-        <v>0.43149999999999999</v>
+        <v>0.47889999999999999</v>
       </c>
       <c r="AU8">
-        <v>0.4824</v>
+        <v>0.51319999999999999</v>
       </c>
       <c r="AV8">
-        <v>0.4642</v>
+        <v>0.44109999999999999</v>
       </c>
       <c r="AW8">
-        <v>0.55810000000000004</v>
+        <v>0.4728</v>
       </c>
       <c r="AX8">
-        <v>0.51790000000000003</v>
+        <v>0.5071</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.45750000000000002</v>
+        <v>0.53520000000000001</v>
       </c>
       <c r="B9">
-        <v>0.53820000000000001</v>
+        <v>0.48770000000000002</v>
       </c>
       <c r="C9">
-        <v>0.52700000000000002</v>
+        <v>0.4471</v>
       </c>
       <c r="D9">
-        <v>0.43530000000000002</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="E9">
-        <v>0.49619999999999997</v>
+        <v>0.51060000000000005</v>
       </c>
       <c r="F9">
-        <v>0.47810000000000002</v>
+        <v>0.43630000000000002</v>
       </c>
       <c r="G9">
-        <v>0.50670000000000004</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="H9">
-        <v>0.49669999999999997</v>
+        <v>0.50680000000000003</v>
       </c>
       <c r="I9">
-        <v>0.52159999999999995</v>
+        <v>0.48509999999999998</v>
       </c>
       <c r="J9">
-        <v>0.45650000000000002</v>
+        <v>0.50219999999999998</v>
       </c>
       <c r="K9">
-        <v>0.49859999999999999</v>
+        <v>0.53849999999999998</v>
       </c>
       <c r="L9">
-        <v>0.51349999999999996</v>
+        <v>0.52910000000000001</v>
       </c>
       <c r="M9">
-        <v>0.47739999999999999</v>
+        <v>0.4834</v>
       </c>
       <c r="N9">
-        <v>0.4753</v>
+        <v>0.52290000000000003</v>
       </c>
       <c r="O9">
-        <v>0.44119999999999998</v>
+        <v>0.45379999999999998</v>
       </c>
       <c r="P9">
-        <v>0.49890000000000001</v>
+        <v>0.5373</v>
       </c>
       <c r="Q9">
-        <v>0.51019999999999999</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="R9">
-        <v>0.49430000000000002</v>
+        <v>0.48730000000000001</v>
       </c>
       <c r="S9">
-        <v>0.54359999999999997</v>
+        <v>0.4824</v>
       </c>
       <c r="T9">
-        <v>0.50649999999999995</v>
+        <v>0.501</v>
       </c>
       <c r="U9">
-        <v>0.5081</v>
+        <v>0.55179999999999996</v>
       </c>
       <c r="V9">
-        <v>0.45200000000000001</v>
+        <v>0.46189999999999998</v>
       </c>
       <c r="W9">
-        <v>0.4582</v>
+        <v>0.51490000000000002</v>
       </c>
       <c r="X9">
-        <v>0.51029999999999998</v>
+        <v>0.50490000000000002</v>
       </c>
       <c r="Y9">
-        <v>0.47570000000000001</v>
+        <v>0.47460000000000002</v>
       </c>
       <c r="Z9">
-        <v>0.47339999999999999</v>
+        <v>0.4466</v>
       </c>
       <c r="AA9">
-        <v>0.48399999999999999</v>
+        <v>0.50939999999999996</v>
       </c>
       <c r="AB9">
-        <v>0.46710000000000002</v>
+        <v>0.47860000000000003</v>
       </c>
       <c r="AC9">
-        <v>0.50839999999999996</v>
+        <v>0.48520000000000002</v>
       </c>
       <c r="AD9">
-        <v>0.49880000000000002</v>
+        <v>0.49120000000000003</v>
       </c>
       <c r="AE9">
-        <v>0.4627</v>
+        <v>0.50690000000000002</v>
       </c>
       <c r="AF9">
-        <v>0.45279999999999998</v>
+        <v>0.49909999999999999</v>
       </c>
       <c r="AG9">
         <v>0.51590000000000003</v>
       </c>
       <c r="AH9">
-        <v>0.47199999999999998</v>
+        <v>0.50009999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.46479999999999999</v>
+        <v>0.51219999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.49120000000000003</v>
+        <v>0.54210000000000003</v>
       </c>
       <c r="AK9">
-        <v>0.48730000000000001</v>
+        <v>0.48820000000000002</v>
       </c>
       <c r="AL9">
-        <v>0.50880000000000003</v>
+        <v>0.54390000000000005</v>
       </c>
       <c r="AM9">
-        <v>0.51319999999999999</v>
+        <v>0.50819999999999999</v>
       </c>
       <c r="AN9">
-        <v>0.46329999999999999</v>
+        <v>0.48230000000000001</v>
       </c>
       <c r="AO9">
-        <v>0.46639999999999998</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="AP9">
-        <v>0.5081</v>
+        <v>0.47689999999999999</v>
       </c>
       <c r="AQ9">
-        <v>0.47939999999999999</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="AR9">
-        <v>0.46810000000000002</v>
+        <v>0.4753</v>
       </c>
       <c r="AS9">
-        <v>0.51570000000000005</v>
+        <v>0.50380000000000003</v>
       </c>
       <c r="AT9">
-        <v>0.46450000000000002</v>
+        <v>0.47449999999999998</v>
       </c>
       <c r="AU9">
-        <v>0.46820000000000001</v>
+        <v>0.49880000000000002</v>
       </c>
       <c r="AV9">
-        <v>0.47639999999999999</v>
+        <v>0.45119999999999999</v>
       </c>
       <c r="AW9">
-        <v>0.54820000000000002</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="AX9">
-        <v>0.51900000000000002</v>
+        <v>0.51490000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.443</v>
+        <v>0.54110000000000003</v>
       </c>
       <c r="B10">
-        <v>0.55310000000000004</v>
+        <v>0.48060000000000003</v>
       </c>
       <c r="C10">
-        <v>0.52229999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="D10">
-        <v>0.4612</v>
+        <v>0.48830000000000001</v>
       </c>
       <c r="E10">
-        <v>0.51080000000000003</v>
+        <v>0.51280000000000003</v>
       </c>
       <c r="F10">
-        <v>0.49309999999999998</v>
+        <v>0.41870000000000002</v>
       </c>
       <c r="G10">
-        <v>0.5121</v>
+        <v>0.4929</v>
       </c>
       <c r="H10">
-        <v>0.4728</v>
+        <v>0.51470000000000005</v>
       </c>
       <c r="I10">
-        <v>0.52939999999999998</v>
+        <v>0.48909999999999998</v>
       </c>
       <c r="J10">
+        <v>0.5141</v>
+      </c>
+      <c r="K10">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="L10">
+        <v>0.53939999999999999</v>
+      </c>
+      <c r="M10">
+        <v>0.47210000000000002</v>
+      </c>
+      <c r="N10">
+        <v>0.50560000000000005</v>
+      </c>
+      <c r="O10">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="Q10">
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="R10">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="S10">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="T10">
+        <v>0.4713</v>
+      </c>
+      <c r="U10">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="V10">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="W10">
+        <v>0.54059999999999997</v>
+      </c>
+      <c r="X10">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="Y10">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="Z10">
+        <v>0.47449999999999998</v>
+      </c>
+      <c r="AA10">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="AB10">
+        <v>0.48930000000000001</v>
+      </c>
+      <c r="AC10">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="AD10">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AE10">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="AF10">
+        <v>0.48759999999999998</v>
+      </c>
+      <c r="AG10">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="AH10">
+        <v>0.4627</v>
+      </c>
+      <c r="AI10">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="AJ10">
+        <v>0.53720000000000001</v>
+      </c>
+      <c r="AK10">
+        <v>0.50870000000000004</v>
+      </c>
+      <c r="AL10">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="AM10">
+        <v>0.4819</v>
+      </c>
+      <c r="AN10">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="AO10">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="AP10">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="AQ10">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="AR10">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="AS10">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="AT10">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="AU10">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="AV10">
         <v>0.45650000000000002</v>
       </c>
-      <c r="K10">
-        <v>0.5161</v>
-      </c>
-      <c r="L10">
-        <v>0.50449999999999995</v>
-      </c>
-      <c r="M10">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.48620000000000002</v>
-      </c>
-      <c r="O10">
-        <v>0.43240000000000001</v>
-      </c>
-      <c r="P10">
-        <v>0.48580000000000001</v>
-      </c>
-      <c r="Q10">
-        <v>0.499</v>
-      </c>
-      <c r="R10">
-        <v>0.47489999999999999</v>
-      </c>
-      <c r="S10">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="T10">
-        <v>0.52149999999999996</v>
-      </c>
-      <c r="U10">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="V10">
-        <v>0.45989999999999998</v>
-      </c>
-      <c r="W10">
-        <v>0.46310000000000001</v>
-      </c>
-      <c r="X10">
-        <v>0.54069999999999996</v>
-      </c>
-      <c r="Y10">
-        <v>0.49080000000000001</v>
-      </c>
-      <c r="Z10">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="AA10">
-        <v>0.4854</v>
-      </c>
-      <c r="AB10">
-        <v>0.46550000000000002</v>
-      </c>
-      <c r="AC10">
-        <v>0.52869999999999995</v>
-      </c>
-      <c r="AD10">
-        <v>0.47989999999999999</v>
-      </c>
-      <c r="AE10">
-        <v>0.46179999999999999</v>
-      </c>
-      <c r="AF10">
-        <v>0.4718</v>
-      </c>
-      <c r="AG10">
-        <v>0.52710000000000001</v>
-      </c>
-      <c r="AH10">
-        <v>0.4597</v>
-      </c>
-      <c r="AI10">
-        <v>0.46079999999999999</v>
-      </c>
-      <c r="AJ10">
-        <v>0.48060000000000003</v>
-      </c>
-      <c r="AK10">
-        <v>0.49859999999999999</v>
-      </c>
-      <c r="AL10">
-        <v>0.47989999999999999</v>
-      </c>
-      <c r="AM10">
-        <v>0.53369999999999995</v>
-      </c>
-      <c r="AN10">
-        <v>0.45529999999999998</v>
-      </c>
-      <c r="AO10">
-        <v>0.47260000000000002</v>
-      </c>
-      <c r="AP10">
-        <v>0.4955</v>
-      </c>
-      <c r="AQ10">
-        <v>0.48249999999999998</v>
-      </c>
-      <c r="AR10">
-        <v>0.4672</v>
-      </c>
-      <c r="AS10">
-        <v>0.49120000000000003</v>
-      </c>
-      <c r="AT10">
-        <v>0.4758</v>
-      </c>
-      <c r="AU10">
-        <v>0.47520000000000001</v>
-      </c>
-      <c r="AV10">
-        <v>0.48070000000000002</v>
-      </c>
       <c r="AW10">
-        <v>0.52190000000000003</v>
+        <v>0.49320000000000003</v>
       </c>
       <c r="AX10">
-        <v>0.53280000000000005</v>
+        <v>0.50039999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.46189999999999998</v>
+        <v>0.52929999999999999</v>
       </c>
       <c r="B11">
-        <v>0.54010000000000002</v>
+        <v>0.48349999999999999</v>
       </c>
       <c r="C11">
-        <v>0.52990000000000004</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D11">
-        <v>0.45119999999999999</v>
+        <v>0.4854</v>
       </c>
       <c r="E11">
-        <v>0.52210000000000001</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="F11">
-        <v>0.46989999999999998</v>
+        <v>0.42670000000000002</v>
       </c>
       <c r="G11">
+        <v>0.49840000000000001</v>
+      </c>
+      <c r="H11">
         <v>0.49890000000000001</v>
       </c>
-      <c r="H11">
-        <v>0.4677</v>
-      </c>
       <c r="I11">
-        <v>0.51280000000000003</v>
+        <v>0.48959999999999998</v>
       </c>
       <c r="J11">
-        <v>0.46450000000000002</v>
+        <v>0.52880000000000005</v>
       </c>
       <c r="K11">
-        <v>0.52310000000000001</v>
+        <v>0.52880000000000005</v>
       </c>
       <c r="L11">
+        <v>0.53890000000000005</v>
+      </c>
+      <c r="M11">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="N11">
         <v>0.50880000000000003</v>
       </c>
-      <c r="M11">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="N11">
-        <v>0.4869</v>
-      </c>
       <c r="O11">
-        <v>0.42049999999999998</v>
+        <v>0.46639999999999998</v>
       </c>
       <c r="P11">
-        <v>0.46300000000000002</v>
+        <v>0.49349999999999999</v>
       </c>
       <c r="Q11">
-        <v>0.48799999999999999</v>
+        <v>0.49869999999999998</v>
       </c>
       <c r="R11">
-        <v>0.49569999999999997</v>
+        <v>0.49619999999999997</v>
       </c>
       <c r="S11">
-        <v>0.56510000000000005</v>
+        <v>0.4642</v>
       </c>
       <c r="T11">
-        <v>0.497</v>
+        <v>0.45140000000000002</v>
       </c>
       <c r="U11">
-        <v>0.49880000000000002</v>
+        <v>0.52559999999999996</v>
       </c>
       <c r="V11">
+        <v>0.4768</v>
+      </c>
+      <c r="W11">
+        <v>0.5121</v>
+      </c>
+      <c r="X11">
+        <v>0.51060000000000005</v>
+      </c>
+      <c r="Y11">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>0.44290000000000002</v>
+      </c>
+      <c r="AA11">
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AB11">
+        <v>0.50309999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>0.51680000000000004</v>
+      </c>
+      <c r="AD11">
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="AE11">
+        <v>0.52229999999999999</v>
+      </c>
+      <c r="AF11">
         <v>0.47570000000000001</v>
       </c>
-      <c r="W11">
-        <v>0.47949999999999998</v>
-      </c>
-      <c r="X11">
-        <v>0.52070000000000005</v>
-      </c>
-      <c r="Y11">
-        <v>0.48770000000000002</v>
-      </c>
-      <c r="Z11">
-        <v>0.48420000000000002</v>
-      </c>
-      <c r="AA11">
-        <v>0.49280000000000002</v>
-      </c>
-      <c r="AB11">
-        <v>0.4622</v>
-      </c>
-      <c r="AC11">
-        <v>0.53690000000000004</v>
-      </c>
-      <c r="AD11">
-        <v>0.47989999999999999</v>
-      </c>
-      <c r="AE11">
-        <v>0.46739999999999998</v>
-      </c>
-      <c r="AF11">
-        <v>0.46700000000000003</v>
-      </c>
       <c r="AG11">
-        <v>0.50780000000000003</v>
+        <v>0.47810000000000002</v>
       </c>
       <c r="AH11">
-        <v>0.4703</v>
+        <v>0.47170000000000001</v>
       </c>
       <c r="AI11">
-        <v>0.48480000000000001</v>
+        <v>0.51529999999999998</v>
       </c>
       <c r="AJ11">
-        <v>0.49519999999999997</v>
+        <v>0.51919999999999999</v>
       </c>
       <c r="AK11">
-        <v>0.47960000000000003</v>
+        <v>0.51239999999999997</v>
       </c>
       <c r="AL11">
-        <v>0.48149999999999998</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="AM11">
-        <v>0.51139999999999997</v>
+        <v>0.4844</v>
       </c>
       <c r="AN11">
-        <v>0.44340000000000002</v>
+        <v>0.45529999999999998</v>
       </c>
       <c r="AO11">
-        <v>0.48</v>
+        <v>0.48709999999999998</v>
       </c>
       <c r="AP11">
-        <v>0.52349999999999997</v>
+        <v>0.49459999999999998</v>
       </c>
       <c r="AQ11">
-        <v>0.47989999999999999</v>
+        <v>0.51749999999999996</v>
       </c>
       <c r="AR11">
-        <v>0.46810000000000002</v>
+        <v>0.49859999999999999</v>
       </c>
       <c r="AS11">
-        <v>0.48549999999999999</v>
+        <v>0.47470000000000001</v>
       </c>
       <c r="AT11">
-        <v>0.46410000000000001</v>
+        <v>0.47510000000000002</v>
       </c>
       <c r="AU11">
-        <v>0.47139999999999999</v>
+        <v>0.49609999999999999</v>
       </c>
       <c r="AV11">
-        <v>0.48970000000000002</v>
+        <v>0.43590000000000001</v>
       </c>
       <c r="AW11">
-        <v>0.50360000000000005</v>
+        <v>0.49380000000000002</v>
       </c>
       <c r="AX11">
-        <v>0.51339999999999997</v>
+        <v>0.50990000000000002</v>
       </c>
     </row>
   </sheetData>
